--- a/Стоимость обслуживания/Смета.xlsx
+++ b/Стоимость обслуживания/Смета.xlsx
@@ -13,6 +13,8 @@
     <sheet name="Клининговые услуги подьезды" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Клининговые услуги паркинг" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Клининговые услуги улица" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Обслуживание лифтов" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Охрана" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="125">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -50,6 +52,12 @@
     <t xml:space="preserve">1.1</t>
   </si>
   <si>
+    <t xml:space="preserve">Смотреть на странице клининга подьезда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ежедневно</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.2</t>
   </si>
   <si>
@@ -59,6 +67,9 @@
     <t xml:space="preserve">2.1</t>
   </si>
   <si>
+    <t xml:space="preserve">Смотреть на странице клининга паркинга</t>
+  </si>
+  <si>
     <t xml:space="preserve">2.2</t>
   </si>
   <si>
@@ -68,6 +79,9 @@
     <t xml:space="preserve">3.1</t>
   </si>
   <si>
+    <t xml:space="preserve">Смотреть на странице клининга улицы</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.2</t>
   </si>
   <si>
@@ -83,9 +97,15 @@
     <t xml:space="preserve">Стоимость охраны и консьержей</t>
   </si>
   <si>
+    <t xml:space="preserve">Смотреть на странице охрана</t>
+  </si>
+  <si>
     <t xml:space="preserve">Обслуживание лифтов</t>
   </si>
   <si>
+    <t xml:space="preserve">Смотреть на странице обслуживание лифтов</t>
+  </si>
+  <si>
     <t xml:space="preserve">Обслуживание систем пожарной безопасности</t>
   </si>
   <si>
@@ -98,9 +118,6 @@
     <t xml:space="preserve">Обращение с ТКО </t>
   </si>
   <si>
-    <t xml:space="preserve">ежедневно</t>
-  </si>
-  <si>
     <t xml:space="preserve">Управление домом</t>
   </si>
   <si>
@@ -282,6 +299,108 @@
   </si>
   <si>
     <t xml:space="preserve">Дворник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена до 10 остановок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена от 10 остановок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liftholding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.liftholding.ru/uslugi/tekhnicheskoe-obsluzhivanie-liftov/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лифтов до 10 остановок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корона лифт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.koronalift.ru/uslugi/obsluzhivanie-liftov/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лифтов от 10 остановок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kleeman минимум</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://kleemann-eit.ru/servis/obsluzhivanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kleeman ВИП</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Подъем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pod-em.ru/price/stoimost-tekhnicheskogo-obsluzhivaniya-lifta/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гарант-2К</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://garant2k.ru/tehnicheskoe-obsluzhivanie-liftov/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Евро-Подъём</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://euro-podyem.com/nashi-uslugi/obsluzhivanie-liftov/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стальной канат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lifty.ru/tehnicheskoe_obslugivanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена охраны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цена консьержа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧОП “Контур”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://kontur-gr.ru/services/ohrana-obektov/ohrana-zhilyh-domov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Охрана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧОП «ФОБР» Эконом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Консьерж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧОП «ФОБР» Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧОП «ФОБР» Бизнес</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧОП «ФОБР» Премиум</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧОП «АБ-САФЕТИ»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ab-safety.ru/ohrana-zhilykh-kompleksov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧОП «ЩИТ» Стандарт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.objector.ru/uslugi-i-tseny/fizicheskaya-okhrana-obektov/okhrana-zhilykh-kompleksov/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЧОП «ЩИТ» Премиум</t>
   </si>
 </sst>
 </file>
@@ -293,7 +412,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$₽-419];[RED]\-#,##0.00\ [$₽-419]"/>
     <numFmt numFmtId="166" formatCode="#,##0.00\ [$₽-419];[RED]\-#,##0.00\ [$₽-419]"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -326,6 +445,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -376,7 +502,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -410,6 +536,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -512,8 +642,8 @@
   </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -570,10 +700,16 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,7 +717,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8" t="n">
@@ -595,12 +731,18 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -608,7 +750,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="8" t="n">
@@ -622,12 +764,18 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,25 +783,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8" t="n">
         <f aca="false">=E11/$H$2</f>
-        <v>11.7673777693053</v>
+        <v>5.88368888465263</v>
       </c>
       <c r="E11" s="8" t="n">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -661,15 +809,21 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="8" t="n">
         <f aca="false">=E14/$H$2</f>
-        <v>16.4743288770274</v>
+        <v>16.8273502101065</v>
       </c>
       <c r="E14" s="8" t="n">
-        <v>1400000</v>
+        <f aca="false">Охрана!F10</f>
+        <v>1430000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,15 +831,24 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="8" t="n">
         <f aca="false">=E17/$H$2</f>
-        <v>4.94229866310821</v>
+        <v>4.44806879679739</v>
       </c>
       <c r="E17" s="8" t="n">
-        <v>420000</v>
+        <f aca="false">'Обслуживание лифтов'!F8</f>
+        <v>378000</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="n">
@@ -709,7 +872,7 @@
         <v>8</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8" t="n">
@@ -722,13 +885,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="n">
         <f aca="false">D23</f>
@@ -744,7 +907,7 @@
         <v>9</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="8" t="n">
@@ -758,13 +921,13 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="n">
         <f aca="false">=E27/$H$2</f>
@@ -780,92 +943,92 @@
         <v>10</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="8" t="n">
         <f aca="false">=E29/$H$2</f>
-        <v>15.3015310770563</v>
+        <v>14.0965515934795</v>
       </c>
       <c r="E29" s="8" t="n">
         <f aca="false">SUM(E2,E5,E8,E11,E14,E17,E20,E23,E26)*0.2</f>
-        <v>1300334.822</v>
+        <v>1197934.822</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="n">
         <f aca="false">=E30/$H$2</f>
-        <v>7.65076553852816</v>
+        <v>7.04827579673973</v>
       </c>
       <c r="E30" s="2" t="n">
         <f aca="false">0.5*E29</f>
-        <v>650167.411</v>
+        <v>598967.411</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="n">
         <f aca="false">=E31/$H$2</f>
-        <v>3.82538276926408</v>
+        <v>3.52413789836987</v>
       </c>
       <c r="E31" s="2" t="n">
         <f aca="false">0.25*E29</f>
-        <v>325083.7055</v>
+        <v>299483.7055</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="n">
         <f aca="false">=E32/$H$2</f>
-        <v>3.06030621541126</v>
+        <v>2.81931031869589</v>
       </c>
       <c r="E32" s="2" t="n">
         <f aca="false">0.2*E29</f>
-        <v>260066.9644</v>
+        <v>239586.9644</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="n">
         <f aca="false">=E33/$H$2</f>
-        <v>0.765076553852816</v>
+        <v>0.704827579673973</v>
       </c>
       <c r="E33" s="2" t="n">
         <f aca="false">0.05*E29</f>
-        <v>65016.7411</v>
+        <v>59896.7411</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,7 +1036,7 @@
         <v>11</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="8" t="n">
@@ -886,13 +1049,13 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>200000</v>
@@ -900,13 +1063,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>500000</v>
@@ -914,10 +1077,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E38" s="2" t="n">
         <f aca="false">E35-E36-E37</f>
@@ -927,11 +1090,11 @@
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D42" s="8" t="n">
         <f aca="false">E42/H2</f>
-        <v>101.809186462338</v>
+        <v>94.5793095608768</v>
       </c>
       <c r="E42" s="8" t="n">
         <f aca="false">SUM(E2,E5,E8,E11,E14,E17,E20,E23,E26,E29,E35)</f>
-        <v>8651815.932</v>
+        <v>8037415.932</v>
       </c>
     </row>
   </sheetData>
@@ -952,263 +1115,263 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="17.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="24.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="17.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="24.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="B2" s="11" t="n">
         <v>160000</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="C2" s="11" t="n">
         <f aca="false">B2*1.13</f>
         <v>180800</v>
       </c>
-      <c r="D2" s="10" t="n">
+      <c r="D2" s="11" t="n">
         <f aca="false">C2*0.3</f>
         <v>54240</v>
       </c>
-      <c r="E2" s="10" t="n">
+      <c r="E2" s="11" t="n">
         <f aca="false">C2+D2</f>
         <v>235040</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="G2" s="11" t="n">
         <f aca="false">E2*F2</f>
         <v>235040</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="10" t="n">
+        <v>59</v>
+      </c>
+      <c r="B3" s="11" t="n">
         <v>60000</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="11" t="n">
         <f aca="false">B3*1.13</f>
         <v>67800</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="11" t="n">
         <f aca="false">C3*0.3</f>
         <v>20340</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="11" t="n">
         <f aca="false">C3+D3</f>
         <v>88140</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="10" t="n">
+      <c r="G3" s="11" t="n">
         <f aca="false">E3*F3</f>
         <v>88140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="10" t="n">
+        <v>60</v>
+      </c>
+      <c r="B4" s="11" t="n">
         <v>60000</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="11" t="n">
         <f aca="false">B4*1.13</f>
         <v>67800</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="11" t="n">
         <f aca="false">C4*0.3</f>
         <v>20340</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="11" t="n">
         <f aca="false">C4+D4</f>
         <v>88140</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G4" s="11" t="n">
         <f aca="false">E4*F4</f>
         <v>88140</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="B5" s="11" t="n">
         <v>60000</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="11" t="n">
         <f aca="false">B5*1.13</f>
         <v>67800</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="11" t="n">
         <f aca="false">C5*0.3</f>
         <v>20340</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="11" t="n">
         <f aca="false">C5+D5</f>
         <v>88140</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="11" t="n">
         <f aca="false">E5*F5</f>
         <v>88140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="B6" s="11" t="n">
         <v>120000</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="11" t="n">
         <f aca="false">B6*1.13</f>
         <v>135600</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="11" t="n">
         <f aca="false">C6*0.3</f>
         <v>40680</v>
       </c>
-      <c r="E6" s="10" t="n">
+      <c r="E6" s="11" t="n">
         <f aca="false">C6+D6</f>
         <v>176280</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="11" t="n">
         <f aca="false">E6*F6</f>
         <v>176280</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="10" t="n">
+        <v>63</v>
+      </c>
+      <c r="B7" s="11" t="n">
         <v>40000</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="11" t="n">
         <f aca="false">B7*1.13</f>
         <v>45200</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="11" t="n">
         <f aca="false">C7*0.3</f>
         <v>13560</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="11" t="n">
         <f aca="false">C7+D7</f>
         <v>58760</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="10" t="n">
+      <c r="G7" s="11" t="n">
         <f aca="false">E7*F7</f>
         <v>117520</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="10" t="n">
+        <v>64</v>
+      </c>
+      <c r="B8" s="11" t="n">
         <v>120000</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="11" t="n">
         <f aca="false">B8*1.13</f>
         <v>135600</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="11" t="n">
         <f aca="false">C8*0.3</f>
         <v>40680</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="11" t="n">
         <f aca="false">C8+D8</f>
         <v>176280</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="11" t="n">
         <f aca="false">E8*F8</f>
         <v>176280</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="10" t="n">
+        <v>65</v>
+      </c>
+      <c r="B9" s="11" t="n">
         <v>45000</v>
       </c>
-      <c r="C9" s="10" t="n">
+      <c r="C9" s="11" t="n">
         <f aca="false">B9*1.13</f>
         <v>50850</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="11" t="n">
         <f aca="false">C9*0.3</f>
         <v>15255</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="11" t="n">
         <f aca="false">C9+D9</f>
         <v>66105</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="11" t="n">
         <f aca="false">E9*F9</f>
         <v>132210</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E21" s="12"/>
-      <c r="G21" s="11" t="n">
+      <c r="E21" s="13"/>
+      <c r="G21" s="12" t="n">
         <f aca="false">SUM(G2:G20)</f>
         <v>1101750</v>
       </c>
@@ -1231,17 +1394,17 @@
   </sheetPr>
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="21.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="20.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="14.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="21.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="20.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="14.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.51"/>
@@ -1252,63 +1415,63 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="G1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>11370</v>
@@ -1316,108 +1479,108 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="10" t="n">
+        <v>76</v>
+      </c>
+      <c r="C3" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="11" t="n">
         <f aca="false">C3*$P$2</f>
         <v>250140</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="10" t="n">
+        <v>77</v>
+      </c>
+      <c r="H3" s="11" t="n">
         <v>60000</v>
       </c>
-      <c r="I3" s="10" t="n">
+      <c r="I3" s="11" t="n">
         <f aca="false">H3*1.13</f>
         <v>67800</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="11" t="n">
         <f aca="false">I3*0.3</f>
         <v>20340</v>
       </c>
-      <c r="K3" s="10" t="n">
+      <c r="K3" s="11" t="n">
         <f aca="false">I3+J3</f>
         <v>88140</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="M3" s="10" t="n">
+      <c r="M3" s="11" t="n">
         <f aca="false">K3*L3</f>
         <v>528840</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="10" t="n">
+        <v>79</v>
+      </c>
+      <c r="C4" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="11" t="n">
         <f aca="false">C4*$P$2</f>
         <v>306990</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="10" t="n">
+        <v>81</v>
+      </c>
+      <c r="C5" s="11" t="n">
         <v>38</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="11" t="n">
         <f aca="false">C5*$P$2</f>
         <v>432060</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="10" t="n">
+        <v>83</v>
+      </c>
+      <c r="C6" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="D6" s="10" t="n">
+      <c r="D6" s="11" t="n">
         <f aca="false">C6*$P$2</f>
         <v>454800</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>79</v>
+      <c r="E6" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="10" t="n">
+        <v>86</v>
+      </c>
+      <c r="C7" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="11" t="n">
         <f aca="false">C7*$P$2</f>
         <v>170550</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>82</v>
+      <c r="E7" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1446,8 +1609,8 @@
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1461,28 +1624,28 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M2" s="0" t="n">
         <v>10305</v>
@@ -1490,30 +1653,30 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="10" t="n">
+        <v>76</v>
+      </c>
+      <c r="C3" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="11" t="n">
         <f aca="false">C3*$M$2</f>
         <v>113355</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="10" t="n">
+        <v>86</v>
+      </c>
+      <c r="C4" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="11" t="n">
         <f aca="false">C4*$M$2</f>
         <v>133965</v>
       </c>
@@ -1553,7 +1716,7 @@
   </sheetPr>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1570,58 +1733,58 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="F1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="P2" s="0" t="n">
         <v>32000</v>
@@ -1629,55 +1792,55 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="10" t="n">
+        <v>76</v>
+      </c>
+      <c r="C3" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="11" t="n">
         <f aca="false">C3*$P$2</f>
         <v>416000</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="G3" s="11" t="n">
         <v>60000</v>
       </c>
-      <c r="H3" s="10" t="n">
+      <c r="H3" s="11" t="n">
         <f aca="false">G3*1.13</f>
         <v>67800</v>
       </c>
-      <c r="I3" s="10" t="n">
+      <c r="I3" s="11" t="n">
         <f aca="false">H3*0.3</f>
         <v>20340</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="11" t="n">
         <f aca="false">H3+I3</f>
         <v>88140</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L3" s="10" t="n">
+      <c r="L3" s="11" t="n">
         <f aca="false">J3*K3</f>
         <v>352560</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="10" t="n">
+        <v>86</v>
+      </c>
+      <c r="C4" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="11" t="n">
         <f aca="false">C4*$P$2</f>
         <v>384000</v>
       </c>
@@ -1698,4 +1861,526 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="22.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>84980.7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <f aca="false">F3/$I$2</f>
+        <v>1.85924568755023</v>
+      </c>
+      <c r="F3" s="11" t="n">
+        <f aca="false">C3*$I$3+D3*$I$4</f>
+        <v>158000</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <f aca="false">F4/$I$2</f>
+        <v>3.71849137510046</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <f aca="false">C4*$I$3+D4*$I$4</f>
+        <v>316000</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>3900</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>4900</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <f aca="false">F5/$I$2</f>
+        <v>1.81923660313459</v>
+      </c>
+      <c r="F5" s="11" t="n">
+        <f aca="false">C5*$I$3+D5*$I$4</f>
+        <v>154600</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <f aca="false">F6/$I$2</f>
+        <v>5.31885475172598</v>
+      </c>
+      <c r="F6" s="11" t="n">
+        <f aca="false">C6*$I$3+D6*$I$4</f>
+        <v>452000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>5200</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>7700</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <f aca="false">F7/$I$2</f>
+        <v>2.72767816692496</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <f aca="false">C7*$I$3+D7*$I$4</f>
+        <v>231800</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>9500</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <f aca="false">F8/$I$2</f>
+        <v>4.44806879679739</v>
+      </c>
+      <c r="F8" s="11" t="n">
+        <f aca="false">C8*$I$3+D8*$I$4</f>
+        <v>378000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="11" t="n">
+        <v>9000</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>11000</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <f aca="false">F9/$I$2</f>
+        <v>4.11858221925684</v>
+      </c>
+      <c r="F9" s="11" t="n">
+        <f aca="false">C9*$I$3+D9*$I$4</f>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>11000</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <f aca="false">F10/$I$2</f>
+        <v>4.65988159664489</v>
+      </c>
+      <c r="F10" s="11" t="n">
+        <f aca="false">C10*$I$3+D10*$I$4</f>
+        <v>396000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="22.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="21.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.99"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>84980.7</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>70000</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <f aca="false">F3/$I$2</f>
+        <v>10.7083137700678</v>
+      </c>
+      <c r="F3" s="11" t="n">
+        <f aca="false">C3*$I$3+D3*$I$4</f>
+        <v>910000</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>85000</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <f aca="false">F4/$I$2</f>
+        <v>13.0029524350823</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <f aca="false">C4*$I$3+D4*$I$4</f>
+        <v>1105000</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>92500</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>92500</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <f aca="false">F5/$I$2</f>
+        <v>14.1502717675896</v>
+      </c>
+      <c r="F5" s="11" t="n">
+        <f aca="false">C5*$I$3+D5*$I$4</f>
+        <v>1202500</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>105500</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>105500</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <f aca="false">F6/$I$2</f>
+        <v>16.1389586106022</v>
+      </c>
+      <c r="F6" s="11" t="n">
+        <f aca="false">C6*$I$3+D6*$I$4</f>
+        <v>1371500</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>140000</v>
+      </c>
+      <c r="D7" s="11" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <f aca="false">F7/$I$2</f>
+        <v>21.4166275401356</v>
+      </c>
+      <c r="F7" s="11" t="n">
+        <f aca="false">C7*$I$3+D7*$I$4</f>
+        <v>1820000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>130000</v>
+      </c>
+      <c r="D8" s="11" t="n">
+        <v>130000</v>
+      </c>
+      <c r="E8" s="11" t="n">
+        <f aca="false">F8/$I$2</f>
+        <v>19.8868684301259</v>
+      </c>
+      <c r="F8" s="11" t="n">
+        <f aca="false">C8*$I$3+D8*$I$4</f>
+        <v>1690000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="11" t="n">
+        <v>130001</v>
+      </c>
+      <c r="D9" s="11" t="n">
+        <v>130001</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <f aca="false">F9/$I$2</f>
+        <v>19.8870214060369</v>
+      </c>
+      <c r="F9" s="11" t="n">
+        <f aca="false">C9*$I$3+D9*$I$4</f>
+        <v>1690013</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>110000</v>
+      </c>
+      <c r="D10" s="11" t="n">
+        <v>110000</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <f aca="false">F10/$I$2</f>
+        <v>16.8273502101065</v>
+      </c>
+      <c r="F10" s="11" t="n">
+        <f aca="false">C10*$I$3+D10*$I$4</f>
+        <v>1430000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>